--- a/biology/Médecine/Léon_Bondoux/Léon_Bondoux.xlsx
+++ b/biology/Médecine/Léon_Bondoux/Léon_Bondoux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Bondoux</t>
+          <t>Léon_Bondoux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Léon Bondoux, né à Château-Chinon (Nièvre) le 6 novembre 1902 où il est mort le 28 septembre 1976, est un médecin de campagne et homme politique français, membre de la Section française de l'Internationale ouvrière.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Bondoux</t>
+          <t>Léon_Bondoux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Léon Bondoux fait ses études de médecine à la faculté de médecine de Paris et fait son internat au Havre. Après avoir soutenu sa thèse, il ouvre un cabinet à Château-Chinon.
 Il entre en politique en adhérant au Parti socialiste et devient conseiller général de la Nièvre et maire de Château-Chinon.
@@ -524,9 +538,9 @@
 En 1936, il est nommé membre de la commission des Douanes et des Conventions commerciales de la commission de l'Hygiène à la Chambre, puis de la commission de la Marine militaire en 1938, et de la commission de la Santé publique la même année. Il ne participe à aucun débat, consacrant son temps à son rôle de commissaire.
 Dispensé des obligations militaires à l'ouverture de la Seconde Guerre mondiale, il demanda à être incorporé à une unité combattante. Affecté au 13e régiment d'infanterie de Nevers, il sera fait prisonnier à Samer, près de Boulogne-sur-Mer, le 15 mai 1940. Prisonnier en Autriche, il dirigea pendant quatorze mois un service hospitalier à Vienne.
 Libéré au début de l'année 1942, il retourne travailler à son cabinet médical, soignant les résistants, malgré le danger de la proximité de la Kommandantur. En 1942, après le débarquement allié, il rejoint le camp des Fréchots à Larochemillay. Il ne prit pas part au vote du 10 juillet 1940 à Vichy sur le projet de loi constitutionnelle (un décret de juillet 1939 a prorogé jusqu'au 31 mai 1942 le mandat des députés élus en mai 1936).
-Il rédige de sa main des affiches appelant à la mobilisation, placardées dans les villages du sud du Morvan, à la suite de quoi cent cinquante jeunes résistants viennent grossir les rangs de ce maquis. Continuant à assurer la bonne marche de l'infirmerie de campagne de cette troupe, auréolé de son prestige de médecin et d'ancien parlementaire du Front populaire, il arrive à modérer les jeunes maquisards de son groupe et évite un certain nombre d'exécutions sommaires contre des prisonniers militaires allemands. Il évite la prise d'assaut de Château-Chinon qui, selon toutes probabilités, aurait laissé un nombre de morts considérable sur le terrain. Il retrouve ses fonctions de maire de Château-Chinon (Campagne) en sa qualité de membre du comité départemental de la Libération et se présente aux élections de[1945 pour la mairie de Château-Chinon (ville). Élu, il ne se représente pas en 1947. Il est également élu en 1945 conseiller général de Château-Chinon et il est ensuite constamment réélu jusqu'en 1970. Il assume la vice-présidence de l'assemblée départementale et se consacre à la restauration du réseau routier et à la modernisation de la santé[1].
-Il continue à exercer son métier de médecin et particulièrement son rôle de médecin chef de la maternité de Château-Chinon. Il est l'un des cofondateurs de l'Académie du Morvan à Château-Chinon en 1967[2].
-Il meurt le 28 septembre 1976 à Château-Chinon[3].
+Il rédige de sa main des affiches appelant à la mobilisation, placardées dans les villages du sud du Morvan, à la suite de quoi cent cinquante jeunes résistants viennent grossir les rangs de ce maquis. Continuant à assurer la bonne marche de l'infirmerie de campagne de cette troupe, auréolé de son prestige de médecin et d'ancien parlementaire du Front populaire, il arrive à modérer les jeunes maquisards de son groupe et évite un certain nombre d'exécutions sommaires contre des prisonniers militaires allemands. Il évite la prise d'assaut de Château-Chinon qui, selon toutes probabilités, aurait laissé un nombre de morts considérable sur le terrain. Il retrouve ses fonctions de maire de Château-Chinon (Campagne) en sa qualité de membre du comité départemental de la Libération et se présente aux élections de[1945 pour la mairie de Château-Chinon (ville). Élu, il ne se représente pas en 1947. Il est également élu en 1945 conseiller général de Château-Chinon et il est ensuite constamment réélu jusqu'en 1970. Il assume la vice-présidence de l'assemblée départementale et se consacre à la restauration du réseau routier et à la modernisation de la santé.
+Il continue à exercer son métier de médecin et particulièrement son rôle de médecin chef de la maternité de Château-Chinon. Il est l'un des cofondateurs de l'Académie du Morvan à Château-Chinon en 1967.
+Il meurt le 28 septembre 1976 à Château-Chinon.
 </t>
         </is>
       </c>
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Bondoux</t>
+          <t>Léon_Bondoux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,9 +569,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Avec Céline dans la forêt morvandelle, réédition en 1990[4].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Avec Céline dans la forêt morvandelle, réédition en 1990.</t>
         </is>
       </c>
     </row>
